--- a/data/trans_dic/MCS12_SP_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R2-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2822466959844566</v>
+        <v>0.2814407670571805</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3096807762633323</v>
+        <v>0.3093881048646393</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2924689297425354</v>
+        <v>0.2911373743517309</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2265593976811739</v>
+        <v>0.2215545921434592</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3827154212785154</v>
+        <v>0.3856878007883006</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4407508960943023</v>
+        <v>0.4403939746251236</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3925106779140988</v>
+        <v>0.3951873533232762</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3041964886989269</v>
+        <v>0.3058762713055272</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.345012701648943</v>
+        <v>0.3441236784787136</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3886845021238057</v>
+        <v>0.386757831056736</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3516402712024676</v>
+        <v>0.3515477241074402</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2762227673274758</v>
+        <v>0.2835325882834542</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3654080081787651</v>
+        <v>0.3641701802088746</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3984240661073662</v>
+        <v>0.39819239866696</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3847020442683744</v>
+        <v>0.3822638781850528</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3694998127687293</v>
+        <v>0.3745062741260363</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.473807802870306</v>
+        <v>0.4777371391289436</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5372817724234743</v>
+        <v>0.5398394797902275</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4944551438238715</v>
+        <v>0.4892510871256168</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4424764610777348</v>
+        <v>0.4415299408100345</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4073098614724237</v>
+        <v>0.4049108465576673</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.45474094880099</v>
+        <v>0.4567275797933072</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4214675659351016</v>
+        <v>0.4245367784000403</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.37736031886599</v>
+        <v>0.3813743486216435</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.4922083400879972</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.4043651654092667</v>
+        <v>0.4043651654092666</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.4095655201589511</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3097652539338511</v>
+        <v>0.3096974775811464</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4100868439203631</v>
+        <v>0.4080380890758133</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.418981261936438</v>
+        <v>0.4143770181117896</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2869777925176556</v>
+        <v>0.2896055920633415</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4432408143876347</v>
+        <v>0.4442319615140926</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5151507283835988</v>
+        <v>0.5112036965879382</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4521286004611635</v>
+        <v>0.4473288210627773</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3585589959274837</v>
+        <v>0.3568191105778964</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3847843273185182</v>
+        <v>0.3807394236785182</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.4666634747278138</v>
+        <v>0.4669087559262706</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.4480343880487426</v>
+        <v>0.4470125141466456</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3397813728214367</v>
+        <v>0.3366399399097665</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3814206161978639</v>
+        <v>0.380796879541409</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4890596813687973</v>
+        <v>0.4836599163187421</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5013203926836691</v>
+        <v>0.500068572559041</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3948529132584935</v>
+        <v>0.4056781305094393</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5257421924909728</v>
+        <v>0.5277897028542203</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5978877046558523</v>
+        <v>0.5915117960693661</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5324982870015735</v>
+        <v>0.5326887347119306</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4500945499086203</v>
+        <v>0.4563883957431428</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4391387626545119</v>
+        <v>0.4346214820327917</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5242890824546543</v>
+        <v>0.5263503678914</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5071730915340695</v>
+        <v>0.5056126552218227</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4117427192712531</v>
+        <v>0.4084844458379159</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.4959333477455352</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.4544249733063948</v>
+        <v>0.4544249733063949</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.5119143797855484</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3903011654727361</v>
+        <v>0.3955198754305684</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4675150369611053</v>
+        <v>0.4673799587250363</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4416375751076613</v>
+        <v>0.4420452689546644</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3193649844941042</v>
+        <v>0.3205680809132718</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5490210499982651</v>
+        <v>0.5391880243456201</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5987534758006609</v>
+        <v>0.5982704746075794</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4579617898245384</v>
+        <v>0.4606401975232783</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4186061995519515</v>
+        <v>0.4199934923720374</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4824597057711864</v>
+        <v>0.4843101522764926</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.5452432398972965</v>
+        <v>0.5461678563474383</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4631197722281885</v>
+        <v>0.4595577705955932</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.379568722374219</v>
+        <v>0.3842051400411686</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4743293234570992</v>
+        <v>0.4749903143745591</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5478303191438587</v>
+        <v>0.5465545649739657</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5232848427869904</v>
+        <v>0.5187816474707257</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4053164694224087</v>
+        <v>0.4033621025228909</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6213906307605628</v>
+        <v>0.6194701903308566</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6763986999665469</v>
+        <v>0.6737495199925637</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5382892785171721</v>
+        <v>0.5350290178585453</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4894872819915784</v>
+        <v>0.4892682456354561</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.542887870123232</v>
+        <v>0.5397025595734338</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6022404127950871</v>
+        <v>0.6020808583510264</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.5187086140370923</v>
+        <v>0.5145775275702705</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4334100154922697</v>
+        <v>0.436607332842328</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.5327404066384511</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.4342406646694035</v>
+        <v>0.4342406646694036</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.6247070323107087</v>
@@ -1105,7 +1105,7 @@
         <v>0.569336647227994</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.4782374779465691</v>
+        <v>0.478237477946569</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4078760730485299</v>
+        <v>0.4050899485134289</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4948622958141727</v>
+        <v>0.4927981188003671</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4892729776534155</v>
+        <v>0.4931559979012907</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3967578710053806</v>
+        <v>0.3962020018931757</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5810240235316798</v>
+        <v>0.582543626658243</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5996300516988007</v>
+        <v>0.5963771676021733</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5660497189037496</v>
+        <v>0.5655843673489581</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4897236220153818</v>
+        <v>0.4876555855133232</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.507146597425788</v>
+        <v>0.5092504582552954</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5585486284642127</v>
+        <v>0.5602819190295592</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5392892852508898</v>
+        <v>0.5401441973622119</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4573228106146107</v>
+        <v>0.4552072222514659</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5010554391165741</v>
+        <v>0.4983585167430952</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5782266705977606</v>
+        <v>0.5784702729614248</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5731488108314575</v>
+        <v>0.5724906715790856</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4751808513716287</v>
+        <v>0.4743523769124633</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6654509134791728</v>
+        <v>0.6625465480144076</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6828515514105294</v>
+        <v>0.682270906014146</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6448600763187902</v>
+        <v>0.6397769520484301</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5490153270026118</v>
+        <v>0.5475364646974896</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5678687647077523</v>
+        <v>0.5702950845870066</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6196488055203898</v>
+        <v>0.6205936271220744</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5988833866424731</v>
+        <v>0.5982162086559936</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.5031908223501942</v>
+        <v>0.5026295126041794</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.61873031609569</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.5779295287348878</v>
+        <v>0.5779295287348877</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.5748079744482117</v>
@@ -1241,7 +1241,7 @@
         <v>0.5693625849504376</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.5333664183555508</v>
+        <v>0.5333664183555509</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5135265553455725</v>
+        <v>0.5117787376664032</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4991118997733767</v>
+        <v>0.5012488150114601</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4663610744943174</v>
+        <v>0.4694822833496263</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4479030889111214</v>
+        <v>0.4483815517180837</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5363440810300889</v>
+        <v>0.5418282625255785</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6365583482837376</v>
+        <v>0.6474419989633787</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5722736313688809</v>
+        <v>0.5684456337167444</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5495737136424583</v>
+        <v>0.54878283826429</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.536788506111653</v>
+        <v>0.5388094791193647</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.5886765546000355</v>
+        <v>0.5854404198490792</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.5380099492148918</v>
+        <v>0.5349832263619317</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.5085306978893798</v>
+        <v>0.504157299500938</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.609411445770939</v>
+        <v>0.6127580616814958</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5968126578973451</v>
+        <v>0.5994041407917529</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5644109258583423</v>
+        <v>0.5632966037512981</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5238433755971323</v>
+        <v>0.5287057597513515</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6314309228981712</v>
+        <v>0.6355173375015882</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7325398267757928</v>
+        <v>0.7371885870767002</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6643014264077354</v>
+        <v>0.6622702631017503</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6123368080220155</v>
+        <v>0.6099260450842966</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.604882571355307</v>
+        <v>0.6097781323585988</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.6573014098896121</v>
+        <v>0.6535650118963811</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.6047174543048506</v>
+        <v>0.6035894527530826</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.5607993117739182</v>
+        <v>0.5574562550873774</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.5872423369062666</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.5592966335931684</v>
+        <v>0.5592966335931685</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.557567577502066</v>
@@ -1377,7 +1377,7 @@
         <v>0.5497208347067287</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.5241190300595147</v>
+        <v>0.5241190300595148</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.483655469688651</v>
+        <v>0.4852843871682396</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4454982544885804</v>
+        <v>0.445778499041997</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4491901333805183</v>
+        <v>0.4509543337290068</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4430594317248845</v>
+        <v>0.4400450341991914</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.5183214105628223</v>
+        <v>0.5164882533270818</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.6011144686775908</v>
+        <v>0.5946696975440461</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.5359092153996514</v>
+        <v>0.5314752757476754</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.5245524959625846</v>
+        <v>0.5261274079556557</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.522137174353163</v>
+        <v>0.520191054360023</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.542517888774817</v>
+        <v>0.5424436219761408</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.5115547639369208</v>
+        <v>0.5101425221230916</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.4968693259041271</v>
+        <v>0.4972719437444644</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5950336347195506</v>
+        <v>0.5951938145537292</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5621348170611828</v>
+        <v>0.5612412318962469</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5554723807084605</v>
+        <v>0.5644412794276277</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.5255192255603517</v>
+        <v>0.5289023717147466</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.6206837093821004</v>
+        <v>0.6229906095702057</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.7011382586603392</v>
+        <v>0.6983909065174002</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.6365040350799003</v>
+        <v>0.6387228751469114</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.5956158868335547</v>
+        <v>0.5921589889619858</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.5967478106624384</v>
+        <v>0.5938798609059176</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.6209444531323295</v>
+        <v>0.6235855639780137</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.5876424273257943</v>
+        <v>0.5833871368134067</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.5487953628631805</v>
+        <v>0.5516442367022814</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4811916792114394</v>
+        <v>0.4795877805638128</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5057743894031693</v>
+        <v>0.5065758320184414</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4858087175476931</v>
+        <v>0.4879484691392656</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5106290560135563</v>
+        <v>0.5121401322902762</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4480182665664098</v>
+        <v>0.4464102669719833</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.6332680604047696</v>
+        <v>0.6337070717956073</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.5475116460398822</v>
+        <v>0.5400054413600321</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.6038047203985779</v>
+        <v>0.6006473991163236</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.4767233543270462</v>
+        <v>0.4756454998181564</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.5995154278177385</v>
+        <v>0.6017750591320264</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.5394102685058577</v>
+        <v>0.5363704640258906</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.5764113141362203</v>
+        <v>0.5772044392140638</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6112518451180344</v>
+        <v>0.6108257421761167</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.640657848403113</v>
+        <v>0.637541043607659</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5996544606451405</v>
+        <v>0.602713400720617</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6013173183899992</v>
+        <v>0.6082195367729327</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5637416761456135</v>
+        <v>0.5653031767595897</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7319159465091113</v>
+        <v>0.7317564071996044</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.6525121644655322</v>
+        <v>0.6597669438596721</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6713906207325016</v>
+        <v>0.6697965489955267</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.5657244211896614</v>
+        <v>0.5630381100771122</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.6796782955394595</v>
+        <v>0.6769281334554125</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.6210115728667325</v>
+        <v>0.6217471629980087</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.6318512542562795</v>
+        <v>0.6337272085704826</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.4815150355797339</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.4184748211465575</v>
+        <v>0.4184748211465576</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.5418144492936345</v>
@@ -1637,7 +1637,7 @@
         <v>0.5484084415923026</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.5076364165484988</v>
+        <v>0.5076364165484987</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.487851131820891</v>
@@ -1649,7 +1649,7 @@
         <v>0.5156856892484182</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.4642919476804128</v>
+        <v>0.4642919476804127</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.414692007002441</v>
+        <v>0.4157683260250113</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.4727619155116248</v>
+        <v>0.4720079417561156</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.4647076255515625</v>
+        <v>0.4626602087230561</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.4012554461106523</v>
+        <v>0.4007775378943373</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.5247719197396368</v>
+        <v>0.5231049842803942</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.601905128453436</v>
+        <v>0.6006790568844488</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.5316105152113435</v>
+        <v>0.5300729822659244</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.493183562784454</v>
+        <v>0.4923339000398586</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.4761293522187702</v>
+        <v>0.4760762846735229</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.5434508822586638</v>
+        <v>0.5428446471638374</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.5034957511439434</v>
+        <v>0.5038563021554011</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.4528728016253796</v>
+        <v>0.452450867742862</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4500762056060974</v>
+        <v>0.45049844778864</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.5075103626492773</v>
+        <v>0.5077559641525569</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.500004738047739</v>
+        <v>0.4983040676580651</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.4371058586141767</v>
+        <v>0.4360059590654434</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.5589122367738513</v>
+        <v>0.5583703995645004</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.6359387755816222</v>
+        <v>0.6346222743435425</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.5656768869817007</v>
+        <v>0.5652430059532721</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.522854044632561</v>
+        <v>0.5214599813820711</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.5007538817860366</v>
+        <v>0.5003090539878823</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.5679803352596084</v>
+        <v>0.567826732978135</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.5280568980529647</v>
+        <v>0.5267258262939751</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.4763871265550031</v>
+        <v>0.4747944123894549</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>139448</v>
+        <v>139050</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>140640</v>
+        <v>140507</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>122680</v>
+        <v>122121</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>92389</v>
+        <v>90348</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>178915</v>
+        <v>180305</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>189624</v>
+        <v>189471</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>155338</v>
+        <v>156397</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>109819</v>
+        <v>110426</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>331748</v>
+        <v>330893</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>343743</v>
+        <v>342039</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>286663</v>
+        <v>286588</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>212363</v>
+        <v>217982</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>180535</v>
+        <v>179923</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>180943</v>
+        <v>180837</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>161368</v>
+        <v>160346</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>150679</v>
+        <v>152721</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>221500</v>
+        <v>223337</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>231155</v>
+        <v>232255</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>195683</v>
+        <v>193624</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>159741</v>
+        <v>159399</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>391650</v>
+        <v>389343</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>402162</v>
+        <v>403919</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>343588</v>
+        <v>346090</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>290118</v>
+        <v>293204</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>227829</v>
+        <v>227779</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>281765</v>
+        <v>280358</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>247407</v>
+        <v>244688</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>136857</v>
+        <v>138110</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>277244</v>
+        <v>277864</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>314373</v>
+        <v>311965</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>254794</v>
+        <v>252089</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>179460</v>
+        <v>178589</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>523685</v>
+        <v>518180</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>605422</v>
+        <v>605740</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>517050</v>
+        <v>515870</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>332100</v>
+        <v>329030</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>280531</v>
+        <v>280072</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>336027</v>
+        <v>332316</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>296028</v>
+        <v>295288</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>188301</v>
+        <v>193464</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>328849</v>
+        <v>330129</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>364864</v>
+        <v>360973</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>300086</v>
+        <v>300194</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>225274</v>
+        <v>228424</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>597660</v>
+        <v>591512</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>680182</v>
+        <v>682856</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>585298</v>
+        <v>583497</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>402435</v>
+        <v>399250</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>249273</v>
+        <v>252606</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>318781</v>
+        <v>318689</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>295498</v>
+        <v>295771</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>197958</v>
+        <v>198704</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>378684</v>
+        <v>371902</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>425624</v>
+        <v>425281</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>302890</v>
+        <v>304661</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>260104</v>
+        <v>260966</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>640905</v>
+        <v>643363</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>759367</v>
+        <v>760655</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>616173</v>
+        <v>611434</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>471123</v>
+        <v>476878</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>302939</v>
+        <v>303361</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>373545</v>
+        <v>372675</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>350128</v>
+        <v>347115</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>251235</v>
+        <v>250024</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>428600</v>
+        <v>427276</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>480818</v>
+        <v>478935</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>356017</v>
+        <v>353861</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>304147</v>
+        <v>304011</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>721179</v>
+        <v>716947</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>838747</v>
+        <v>838525</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>690133</v>
+        <v>684637</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>537952</v>
+        <v>541920</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>211748</v>
+        <v>210301</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>304151</v>
+        <v>302882</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>316094</v>
+        <v>318602</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>277167</v>
+        <v>276778</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>299600</v>
+        <v>300384</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>369491</v>
+        <v>367487</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>367410</v>
+        <v>367108</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>359063</v>
+        <v>357547</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>524790</v>
+        <v>526967</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>687471</v>
+        <v>689604</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>698447</v>
+        <v>699554</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>654783</v>
+        <v>651754</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>260121</v>
+        <v>258721</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>355388</v>
+        <v>355538</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>370282</v>
+        <v>369856</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>331951</v>
+        <v>331373</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>343134</v>
+        <v>341637</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>420772</v>
+        <v>420415</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>418564</v>
+        <v>415265</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>402536</v>
+        <v>401452</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>587624</v>
+        <v>590135</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>762674</v>
+        <v>763837</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>775629</v>
+        <v>774765</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>720456</v>
+        <v>719652</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>198586</v>
+        <v>197910</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>214333</v>
+        <v>215251</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>222882</v>
+        <v>224374</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>269768</v>
+        <v>270056</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>216675</v>
+        <v>218891</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>285051</v>
+        <v>289925</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>284334</v>
+        <v>282432</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>333308</v>
+        <v>332829</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>424437</v>
+        <v>426034</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>516404</v>
+        <v>513565</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>524434</v>
+        <v>521484</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>614699</v>
+        <v>609413</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>235666</v>
+        <v>236960</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>256289</v>
+        <v>257402</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>269742</v>
+        <v>269210</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>315506</v>
+        <v>318434</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>255089</v>
+        <v>256740</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>328031</v>
+        <v>330113</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>330057</v>
+        <v>329048</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>371373</v>
+        <v>369911</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>478278</v>
+        <v>482149</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>576604</v>
+        <v>573326</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>589459</v>
+        <v>588359</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>677880</v>
+        <v>673839</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>141509</v>
+        <v>141986</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>138009</v>
+        <v>138096</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>150178</v>
+        <v>150768</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>178151</v>
+        <v>176939</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>177750</v>
+        <v>177121</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>212792</v>
+        <v>210511</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>202446</v>
+        <v>200771</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>229361</v>
+        <v>230049</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>331827</v>
+        <v>330590</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>360114</v>
+        <v>360064</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>364274</v>
+        <v>363268</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>417043</v>
+        <v>417381</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>174097</v>
+        <v>174144</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>174141</v>
+        <v>173865</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>185711</v>
+        <v>188710</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>211307</v>
+        <v>212667</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>212854</v>
+        <v>213645</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>248200</v>
+        <v>247228</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>240447</v>
+        <v>241285</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>260433</v>
+        <v>258922</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>379243</v>
+        <v>377421</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>412172</v>
+        <v>413925</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>418455</v>
+        <v>415425</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>460627</v>
+        <v>463018</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>100994</v>
+        <v>100657</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>126368</v>
+        <v>126568</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>124852</v>
+        <v>125402</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>157074</v>
+        <v>157539</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>149597</v>
+        <v>149060</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>246328</v>
+        <v>246499</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>219097</v>
+        <v>216093</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>275226</v>
+        <v>273786</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>259238</v>
+        <v>258652</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>382988</v>
+        <v>384432</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>354483</v>
+        <v>352485</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>440049</v>
+        <v>440654</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>128291</v>
+        <v>128202</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>160069</v>
+        <v>159290</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>154110</v>
+        <v>154896</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>184971</v>
+        <v>187094</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>188238</v>
+        <v>188759</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>284700</v>
+        <v>284638</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>261115</v>
+        <v>264018</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>306033</v>
+        <v>305306</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>307636</v>
+        <v>306175</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>434199</v>
+        <v>432442</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>408108</v>
+        <v>408592</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>482373</v>
+        <v>483805</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1358756</v>
+        <v>1362283</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1620051</v>
+        <v>1617467</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1577380</v>
+        <v>1570431</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>1410454</v>
+        <v>1408774</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>1773308</v>
+        <v>1767675</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>2141764</v>
+        <v>2137402</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>1884316</v>
+        <v>1878866</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>1832486</v>
+        <v>1829329</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>3168994</v>
+        <v>3168640</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>3796052</v>
+        <v>3791818</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>3493703</v>
+        <v>3496204</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>3274601</v>
+        <v>3271550</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>1474694</v>
+        <v>1476078</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>1739126</v>
+        <v>1739967</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1697191</v>
+        <v>1691418</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>1536472</v>
+        <v>1532606</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>1888675</v>
+        <v>1886844</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>2262867</v>
+        <v>2258182</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>2005065</v>
+        <v>2003528</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>1942731</v>
+        <v>1937551</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>3332888</v>
+        <v>3329927</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>3967393</v>
+        <v>3966320</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>3664130</v>
+        <v>3654894</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>3444627</v>
+        <v>3433110</v>
       </c>
     </row>
     <row r="36">
